--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -405,7 +405,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,74 +442,74 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="C4">
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C5">
-        <v>123</v>
+        <v>123456</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>123456</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>123456</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>password is empty</t>
+  </si>
+  <si>
+    <t>james_pan@nopCommerce.com</t>
   </si>
 </sst>
 </file>
@@ -405,12 +408,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>123456</v>
@@ -506,10 +509,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
